--- a/Data/Cost_estimation.xlsx
+++ b/Data/Cost_estimation.xlsx
@@ -5,23 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s168027\Documents\GitHub\Brabant-systeem-integratie-model\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s124129\Documents\GitHub\Brabant-buurt-serious-game\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89151D38-5F18-458B-AB67-BF30BA4C5156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71D8E93-3984-4F1D-92EB-2B0E3F50A26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17955" yWindow="1620" windowWidth="21600" windowHeight="11385" firstSheet="7" activeTab="8" xr2:uid="{692682D6-B432-47D6-B814-AA5FB880D973}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{692682D6-B432-47D6-B814-AA5FB880D973}"/>
   </bookViews>
   <sheets>
     <sheet name="Inhouse heat systems" sheetId="1" r:id="rId1"/>
-    <sheet name="Blad1" sheetId="5" r:id="rId2"/>
-    <sheet name="District heating" sheetId="2" r:id="rId3"/>
-    <sheet name="Cable lengths" sheetId="3" r:id="rId4"/>
-    <sheet name="Energy cost" sheetId="4" r:id="rId5"/>
-    <sheet name="Isolation cost" sheetId="6" r:id="rId6"/>
-    <sheet name="Electricity fixed and variable" sheetId="7" r:id="rId7"/>
-    <sheet name="Gas fixed and variable" sheetId="8" r:id="rId8"/>
-    <sheet name="Energy saving isolation" sheetId="9" r:id="rId9"/>
+    <sheet name="District heating" sheetId="2" r:id="rId2"/>
+    <sheet name="Cable lengths" sheetId="3" r:id="rId3"/>
+    <sheet name="Energy cost" sheetId="4" r:id="rId4"/>
+    <sheet name="Isolation cost" sheetId="6" r:id="rId5"/>
+    <sheet name="Electricity fixed and variable" sheetId="7" r:id="rId6"/>
+    <sheet name="Gas fixed and variable" sheetId="8" r:id="rId7"/>
+    <sheet name="Energy saving isolation" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -394,8 +393,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Komma" xfId="1" builtinId="3"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -411,7 +410,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -713,16 +712,16 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -748,7 +747,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -774,7 +773,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -800,7 +799,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -826,7 +825,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -852,7 +851,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -878,7 +877,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -889,7 +888,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -900,7 +899,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -919,145 +918,133 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10BEF9FE-4C6F-4F25-92F8-FE33B8605BD1}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E437254-8431-436A-A556-48E8AFAFCC33}">
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>12000</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2">
+        <v>836.14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2">
+        <v>360</v>
+      </c>
+      <c r="G2">
+        <v>267.92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>10000</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>836.14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3">
+        <v>360</v>
+      </c>
+      <c r="G3">
+        <v>267.92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>4000</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>836.14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4">
+        <v>360</v>
+      </c>
+      <c r="G4">
+        <v>267.92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>270</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E437254-8431-436A-A556-48E8AFAFCC33}">
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>12000</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2">
-        <v>836.14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2">
-        <v>360</v>
-      </c>
-      <c r="G2">
-        <v>267.92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3">
-        <v>10000</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3">
-        <v>836.14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3">
-        <v>360</v>
-      </c>
-      <c r="G3">
-        <v>267.92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4">
-        <v>4000</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4">
-        <v>836.14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4">
-        <v>360</v>
-      </c>
-      <c r="G4">
-        <v>267.92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5">
-        <v>270</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F57F280-26BB-4261-BACF-CAF01FCB9D88}">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -1065,14 +1052,14 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -1086,7 +1073,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -1100,7 +1087,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -1114,7 +1101,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1128,7 +1115,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -1142,7 +1129,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -1154,6 +1141,111 @@
       </c>
       <c r="D6">
         <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED887E6-C52A-44E3-8558-D8298B71C13E}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="C2">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="D2">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C3">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="D3">
+        <v>0.113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="C4">
+        <v>0.104</v>
+      </c>
+      <c r="D4">
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="C5">
+        <v>6.3E-2</v>
+      </c>
+      <c r="D5">
+        <v>8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6">
+        <v>0.65</v>
+      </c>
+      <c r="C6">
+        <v>1.03</v>
+      </c>
+      <c r="D6">
+        <v>1.06</v>
       </c>
     </row>
   </sheetData>
@@ -1162,111 +1254,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED887E6-C52A-44E3-8558-D8298B71C13E}">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="C2">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="D2">
-        <v>0.108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C3">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="D3">
-        <v>0.113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="C4">
-        <v>0.104</v>
-      </c>
-      <c r="D4">
-        <v>0.126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="C5">
-        <v>6.3E-2</v>
-      </c>
-      <c r="D5">
-        <v>8.5999999999999993E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6">
-        <v>0.65</v>
-      </c>
-      <c r="C6">
-        <v>1.03</v>
-      </c>
-      <c r="D6">
-        <v>1.06</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{263B4AC1-EA0B-4248-8D24-3E88A33BF26F}">
   <dimension ref="A1:F16"/>
   <sheetViews>
@@ -1274,14 +1261,14 @@
       <selection activeCell="A2" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>54</v>
       </c>
@@ -1301,7 +1288,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>60</v>
       </c>
@@ -1321,7 +1308,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -1341,7 +1328,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>60</v>
       </c>
@@ -1361,7 +1348,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -1381,7 +1368,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -1401,7 +1388,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>61</v>
       </c>
@@ -1421,7 +1408,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -1441,7 +1428,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>62</v>
       </c>
@@ -1461,7 +1448,7 @@
         <v>9500</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -1481,7 +1468,7 @@
         <v>9600</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -1501,7 +1488,7 @@
         <v>7800</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>63</v>
       </c>
@@ -1521,7 +1508,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>63</v>
       </c>
@@ -1541,7 +1528,7 @@
         <v>19200</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -1561,7 +1548,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>64</v>
       </c>
@@ -1581,7 +1568,7 @@
         <v>34000</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -1607,7 +1594,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0021523-DB97-4A3B-ABB1-1F3475BBAC32}">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -1615,18 +1602,18 @@
       <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>74</v>
       </c>
@@ -1649,7 +1636,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -1672,7 +1659,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -1695,7 +1682,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -1718,7 +1705,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2030</v>
       </c>
@@ -1746,7 +1733,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F87176E8-27CD-4C0C-9908-8DFDF47D66DD}">
   <dimension ref="A1:F5"/>
   <sheetViews>
@@ -1754,17 +1741,17 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>75</v>
       </c>
@@ -1784,7 +1771,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -1804,7 +1791,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -1824,7 +1811,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -1844,7 +1831,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2030</v>
       </c>
@@ -1869,20 +1856,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E70A0170-35A7-422A-9D94-DBCB40C9F5FD}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>81</v>
       </c>
@@ -1896,7 +1883,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -1910,7 +1897,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -1924,7 +1911,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>64</v>
       </c>
@@ -1938,7 +1925,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -1952,7 +1939,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>60</v>
       </c>

--- a/Data/Cost_estimation.xlsx
+++ b/Data/Cost_estimation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s124129\Documents\GitHub\Brabant-buurt-serious-game\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71D8E93-3984-4F1D-92EB-2B0E3F50A26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BAE5DC0-8DE6-4736-B4AF-630E8D29A8A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{692682D6-B432-47D6-B814-AA5FB880D973}"/>
   </bookViews>
@@ -17,8 +17,8 @@
     <sheet name="District heating" sheetId="2" r:id="rId2"/>
     <sheet name="Cable lengths" sheetId="3" r:id="rId3"/>
     <sheet name="Energy cost" sheetId="4" r:id="rId4"/>
-    <sheet name="Isolation cost" sheetId="6" r:id="rId5"/>
-    <sheet name="Electricity fixed and variable" sheetId="7" r:id="rId6"/>
+    <sheet name="Electricity fixed and variable" sheetId="7" r:id="rId5"/>
+    <sheet name="Isolation cost" sheetId="6" r:id="rId6"/>
     <sheet name="Gas fixed and variable" sheetId="8" r:id="rId7"/>
     <sheet name="Energy saving isolation" sheetId="9" r:id="rId8"/>
   </sheets>
@@ -40,8 +40,69 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={CB2624A8-EEC4-4366-955D-D44460D42BAA}</author>
+    <author>tc={7C94406E-5488-4217-9E33-1005438C504D}</author>
+    <author>tc={F9A38D72-9A39-4A9E-9765-B0486F4A274F}</author>
+    <author>Loomans, N.</author>
+  </authors>
+  <commentList>
+    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{CB2624A8-EEC4-4366-955D-D44460D42BAA}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Power peers groen gas</t>
+      </text>
+    </comment>
+    <comment ref="E9" authorId="1" shapeId="0" xr:uid="{7C94406E-5488-4217-9E33-1005438C504D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Power peers groen gas</t>
+      </text>
+    </comment>
+    <comment ref="E10" authorId="2" shapeId="0" xr:uid="{F9A38D72-9A39-4A9E-9765-B0486F4A274F}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Power peers groen gas</t>
+      </text>
+    </comment>
+    <comment ref="E11" authorId="3" shapeId="0" xr:uid="{CBFD75A0-1DE4-4383-86B4-3DCA9886B879}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Loomans, N.:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+https://ce.nl/wp-content/uploads/2022/02/CE_Delft_210264_Maatschappelijke_waarde_groengas_DEF.pdf</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="99">
   <si>
     <t>Unit</t>
   </si>
@@ -104,15 +165,6 @@
   </si>
   <si>
     <t>Aansluitkosten</t>
-  </si>
-  <si>
-    <t>Eenmalige aansluitbijdragen</t>
-  </si>
-  <si>
-    <t>Onderhoudskosten (€/aansluiting/jaar)</t>
-  </si>
-  <si>
-    <t>Periodiek nettarief (€/aansluiting/jaar)</t>
   </si>
   <si>
     <t>Neighborhood</t>
@@ -216,12 +268,6 @@
     <t>EUR/m2</t>
   </si>
   <si>
-    <t>EUR/m3</t>
-  </si>
-  <si>
-    <t>EUR/m4</t>
-  </si>
-  <si>
     <t>EUR/kW/y</t>
   </si>
   <si>
@@ -319,16 +365,74 @@
   </si>
   <si>
     <t>High</t>
+  </si>
+  <si>
+    <t>Energiedrager</t>
+  </si>
+  <si>
+    <t>natural gas</t>
+  </si>
+  <si>
+    <t>green gas</t>
+  </si>
+  <si>
+    <t>BTW</t>
+  </si>
+  <si>
+    <t>Totaal</t>
+  </si>
+  <si>
+    <t>Subtotaal</t>
+  </si>
+  <si>
+    <t>/aansluiting</t>
+  </si>
+  <si>
+    <t>/m</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>aansluitkosten</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>eenmalige_aansluitbijdragen</t>
+  </si>
+  <si>
+    <t>unit_1</t>
+  </si>
+  <si>
+    <t>onderhoudskosten_aansluiting_jaar</t>
+  </si>
+  <si>
+    <t>periodiek_nettarief_aansluiting_jaar</t>
+  </si>
+  <si>
+    <t>Levensduur</t>
+  </si>
+  <si>
+    <t>Leveringskosten Warmte (EUR/GJ)</t>
+  </si>
+  <si>
+    <t>Leveringskosten warmte (Eur/kWh)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -364,6 +468,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -382,19 +499,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -407,6 +530,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Loomans, Naud" id="{AA70B0DB-01DC-45B7-BD28-402812321547}" userId="S::n.loomans@tue.nl::b1f982a0-abfb-428d-a2b4-b1c79a794269" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -704,12 +833,26 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="E8" dT="2022-08-05T13:29:38.93" personId="{AA70B0DB-01DC-45B7-BD28-402812321547}" id="{CB2624A8-EEC4-4366-955D-D44460D42BAA}">
+    <text>Power peers groen gas</text>
+  </threadedComment>
+  <threadedComment ref="E9" dT="2022-08-05T13:29:38.93" personId="{AA70B0DB-01DC-45B7-BD28-402812321547}" id="{7C94406E-5488-4217-9E33-1005438C504D}">
+    <text>Power peers groen gas</text>
+  </threadedComment>
+  <threadedComment ref="E10" dT="2022-08-05T13:29:38.93" personId="{AA70B0DB-01DC-45B7-BD28-402812321547}" id="{F9A38D72-9A39-4A9E-9765-B0486F4A274F}">
+    <text>Power peers groen gas</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C01DEAE-B245-4BB5-9FCD-4FA4EE9440AC}">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -732,13 +875,13 @@
         <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>0</v>
@@ -758,7 +901,7 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -767,7 +910,7 @@
         <v>909.8</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H2">
         <v>15</v>
@@ -784,7 +927,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -793,7 +936,7 @@
         <v>1390.4</v>
       </c>
       <c r="G3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H3">
         <v>15</v>
@@ -810,7 +953,7 @@
         <v>40.816326530612201</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -819,7 +962,7 @@
         <v>779.38775510204096</v>
       </c>
       <c r="G4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H4">
         <v>15</v>
@@ -836,7 +979,7 @@
         <v>4.4545454545454497</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -845,7 +988,7 @@
         <v>97.022272727272707</v>
       </c>
       <c r="G5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H5">
         <v>15</v>
@@ -862,7 +1005,7 @@
         <v>4.4545454545454497</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -871,7 +1014,7 @@
         <v>97.022272727272707</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H6">
         <v>15</v>
@@ -879,35 +1022,71 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>42</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
       </c>
       <c r="F7">
         <v>8</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="H7">
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
       </c>
       <c r="F8">
         <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>46</v>
+      </c>
+      <c r="H8">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
         <v>47</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
       </c>
       <c r="F9">
         <v>71</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>46</v>
+      </c>
+      <c r="H9">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -919,10 +1098,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E437254-8431-436A-A556-48E8AFAFCC33}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -936,7 +1115,7 @@
     <col min="7" max="7" width="36.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -947,19 +1126,37 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>21</v>
+        <v>89</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -969,20 +1166,39 @@
       <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="6">
+        <v>12000</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="6">
         <v>836.14</v>
       </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2">
+      <c r="H2" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" s="6">
         <v>360</v>
       </c>
-      <c r="G2">
+      <c r="J2" s="6">
         <v>267.92</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K2" s="6">
+        <v>30</v>
+      </c>
+      <c r="L2" s="6">
+        <v>50</v>
+      </c>
+      <c r="M2" s="7">
+        <f>L2/3.6/1000</f>
+        <v>1.388888888888889E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -992,20 +1208,39 @@
       <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="6">
+        <v>10000</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="6">
         <v>836.14</v>
       </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3">
+      <c r="H3" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="6">
         <v>360</v>
       </c>
-      <c r="G3">
+      <c r="J3" s="6">
         <v>267.92</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K3" s="6">
+        <v>30</v>
+      </c>
+      <c r="L3" s="6">
+        <v>50</v>
+      </c>
+      <c r="M3" s="7">
+        <f t="shared" ref="M3:M5" si="0">L3/3.6/1000</f>
+        <v>1.388888888888889E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1015,20 +1250,39 @@
       <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="6">
+        <v>4000</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="6">
         <v>836.14</v>
       </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4">
+      <c r="H4" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4" s="6">
         <v>360</v>
       </c>
-      <c r="G4">
+      <c r="J4" s="6">
         <v>267.92</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="K4" s="6">
+        <v>30</v>
+      </c>
+      <c r="L4" s="6">
+        <v>50</v>
+      </c>
+      <c r="M4" s="7">
+        <f t="shared" si="0"/>
+        <v>1.388888888888889E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1038,9 +1292,41 @@
       <c r="C5" t="s">
         <v>18</v>
       </c>
+      <c r="D5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="6">
+        <v>270</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
+        <v>30</v>
+      </c>
+      <c r="L5" s="6">
+        <v>50</v>
+      </c>
+      <c r="M5" s="7">
+        <f t="shared" si="0"/>
+        <v>1.388888888888889E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1061,24 +1347,24 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C2">
         <v>39</v>
@@ -1089,7 +1375,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
@@ -1103,7 +1389,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B4" s="3">
         <v>5</v>
@@ -1117,7 +1403,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
@@ -1131,10 +1417,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C6">
         <v>22</v>
@@ -1152,8 +1438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED887E6-C52A-44E3-8558-D8298B71C13E}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1166,21 +1452,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>6.5000000000000002E-2</v>
@@ -1194,7 +1480,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B3">
         <v>7.0000000000000007E-2</v>
@@ -1208,7 +1494,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B4">
         <v>8.3000000000000004E-2</v>
@@ -1222,7 +1508,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B5">
         <v>4.2000000000000003E-2</v>
@@ -1236,7 +1522,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B6">
         <v>0.65</v>
@@ -1254,352 +1540,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{263B4AC1-EA0B-4248-8D24-3E88A33BF26F}">
-  <dimension ref="A1:F16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0021523-DB97-4A3B-ABB1-1F3475BBAC32}">
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2">
-        <v>800</v>
-      </c>
-      <c r="D2">
-        <v>7200</v>
-      </c>
-      <c r="E2">
-        <v>6500</v>
-      </c>
-      <c r="F2">
-        <v>5400</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3">
-        <v>30000</v>
-      </c>
-      <c r="D3">
-        <v>20000</v>
-      </c>
-      <c r="E3">
-        <v>18000</v>
-      </c>
-      <c r="F3">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4">
-        <v>24000</v>
-      </c>
-      <c r="D4">
-        <v>16000</v>
-      </c>
-      <c r="E4">
-        <v>14400</v>
-      </c>
-      <c r="F4">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5">
-        <v>9500</v>
-      </c>
-      <c r="D5">
-        <v>8500</v>
-      </c>
-      <c r="E5">
-        <v>7700</v>
-      </c>
-      <c r="F5">
-        <v>6500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6">
-        <v>40000</v>
-      </c>
-      <c r="D6">
-        <v>26000</v>
-      </c>
-      <c r="E6">
-        <v>24000</v>
-      </c>
-      <c r="F6">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7">
-        <v>32000</v>
-      </c>
-      <c r="D7">
-        <v>20800</v>
-      </c>
-      <c r="E7">
-        <v>19200</v>
-      </c>
-      <c r="F7">
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8">
-        <v>6500</v>
-      </c>
-      <c r="D8">
-        <v>5800</v>
-      </c>
-      <c r="E8">
-        <v>5200</v>
-      </c>
-      <c r="F8">
-        <v>4400</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9">
-        <v>22000</v>
-      </c>
-      <c r="D9">
-        <v>15000</v>
-      </c>
-      <c r="E9">
-        <v>13500</v>
-      </c>
-      <c r="F9">
-        <v>9500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10">
-        <v>17600</v>
-      </c>
-      <c r="D10">
-        <v>12000</v>
-      </c>
-      <c r="E10">
-        <v>10800</v>
-      </c>
-      <c r="F10">
-        <v>9600</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11">
-        <v>11500</v>
-      </c>
-      <c r="D11">
-        <v>10300</v>
-      </c>
-      <c r="E11">
-        <v>9300</v>
-      </c>
-      <c r="F11">
-        <v>7800</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12">
-        <v>40000</v>
-      </c>
-      <c r="D12">
-        <v>31000</v>
-      </c>
-      <c r="E12">
-        <v>28000</v>
-      </c>
-      <c r="F12">
-        <v>24000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>63</v>
-      </c>
-      <c r="B13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13">
-        <v>32000</v>
-      </c>
-      <c r="D13">
-        <v>24800</v>
-      </c>
-      <c r="E13">
-        <v>22400</v>
-      </c>
-      <c r="F13">
-        <v>19200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14">
-        <v>16000</v>
-      </c>
-      <c r="D14">
-        <v>14200</v>
-      </c>
-      <c r="E14">
-        <v>13000</v>
-      </c>
-      <c r="F14">
-        <v>11000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15">
-        <v>66000</v>
-      </c>
-      <c r="D15">
-        <v>44000</v>
-      </c>
-      <c r="E15">
-        <v>40000</v>
-      </c>
-      <c r="F15">
-        <v>34000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16">
-        <v>52800</v>
-      </c>
-      <c r="D16">
-        <v>35200</v>
-      </c>
-      <c r="E16">
-        <v>32000</v>
-      </c>
-      <c r="F16">
-        <v>27200</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0021523-DB97-4A3B-ABB1-1F3475BBAC32}">
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1613,30 +1558,39 @@
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" t="s">
         <v>68</v>
       </c>
-      <c r="C1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -1652,14 +1606,25 @@
       <c r="E2">
         <v>0.06</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="4">
         <v>0.11</v>
       </c>
       <c r="G2">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" s="4">
+        <f>SUM(E2:G2)</f>
+        <v>0.18</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="J2" s="4">
+        <f>H2*(1+I2)</f>
+        <v>0.21779999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -1675,14 +1640,25 @@
       <c r="E3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="4">
         <v>0.1</v>
       </c>
       <c r="G3">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" s="4">
+        <f t="shared" ref="H3:H6" si="0">SUM(E3:G3)</f>
+        <v>0.19</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J6" si="1">H3*(1+I3)</f>
+        <v>0.22989999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -1698,34 +1674,90 @@
       <c r="E4">
         <v>0.06</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="4">
         <v>0.1</v>
       </c>
       <c r="G4">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" s="4">
+        <f t="shared" si="0"/>
+        <v>0.19</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="1"/>
+        <v>0.22989999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>2030</v>
+        <v>2022</v>
       </c>
       <c r="B5">
-        <v>246</v>
+        <v>229</v>
       </c>
       <c r="C5">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="D5">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="E5">
-        <v>0.08</v>
-      </c>
-      <c r="F5">
-        <v>7.0000000000000007E-2</v>
+        <v>0.64</v>
+      </c>
+      <c r="F5" s="4">
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="G5">
         <v>0.03</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" si="0"/>
+        <v>0.70700000000000007</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="1"/>
+        <v>0.77063000000000015</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2030</v>
+      </c>
+      <c r="B6">
+        <v>246</v>
+      </c>
+      <c r="C6">
+        <v>55</v>
+      </c>
+      <c r="D6">
+        <v>449</v>
+      </c>
+      <c r="E6">
+        <v>0.08</v>
+      </c>
+      <c r="F6" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G6">
+        <v>0.03</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="1"/>
+        <v>0.21780000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -1733,126 +1765,748 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F87176E8-27CD-4C0C-9908-8DFDF47D66DD}">
-  <dimension ref="A1:F5"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{263B4AC1-EA0B-4248-8D24-3E88A33BF26F}">
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" t="s">
-        <v>76</v>
+      <c r="A1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>2018</v>
-      </c>
-      <c r="B2">
-        <v>146</v>
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
       </c>
       <c r="C2">
-        <v>46</v>
+        <v>800</v>
       </c>
       <c r="D2">
-        <v>0.28000000000000003</v>
+        <v>7200</v>
       </c>
       <c r="E2">
-        <v>0.26</v>
+        <v>6500</v>
       </c>
       <c r="F2">
-        <v>0.03</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2019</v>
-      </c>
-      <c r="B3">
-        <v>147</v>
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
       </c>
       <c r="C3">
+        <v>30000</v>
+      </c>
+      <c r="D3">
+        <v>20000</v>
+      </c>
+      <c r="E3">
+        <v>18000</v>
+      </c>
+      <c r="F3">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>55</v>
       </c>
-      <c r="D3">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="E3">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="F3">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2020</v>
-      </c>
-      <c r="B4">
-        <v>151</v>
+      <c r="B4" t="s">
+        <v>62</v>
       </c>
       <c r="C4">
-        <v>55</v>
+        <v>24000</v>
       </c>
       <c r="D4">
-        <v>0.26</v>
+        <v>16000</v>
       </c>
       <c r="E4">
-        <v>0.33</v>
+        <v>14400</v>
       </c>
       <c r="F4">
-        <v>0.08</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>2030</v>
-      </c>
-      <c r="B5">
-        <v>151</v>
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
+        <v>60</v>
       </c>
       <c r="C5">
-        <v>55</v>
+        <v>9500</v>
       </c>
       <c r="D5">
-        <v>0.35</v>
+        <v>8500</v>
       </c>
       <c r="E5">
-        <v>0.39</v>
+        <v>7700</v>
       </c>
       <c r="F5">
-        <v>0.09</v>
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6">
+        <v>40000</v>
+      </c>
+      <c r="D6">
+        <v>26000</v>
+      </c>
+      <c r="E6">
+        <v>24000</v>
+      </c>
+      <c r="F6">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7">
+        <v>32000</v>
+      </c>
+      <c r="D7">
+        <v>20800</v>
+      </c>
+      <c r="E7">
+        <v>19200</v>
+      </c>
+      <c r="F7">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8">
+        <v>6500</v>
+      </c>
+      <c r="D8">
+        <v>5800</v>
+      </c>
+      <c r="E8">
+        <v>5200</v>
+      </c>
+      <c r="F8">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9">
+        <v>22000</v>
+      </c>
+      <c r="D9">
+        <v>15000</v>
+      </c>
+      <c r="E9">
+        <v>13500</v>
+      </c>
+      <c r="F9">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10">
+        <v>17600</v>
+      </c>
+      <c r="D10">
+        <v>12000</v>
+      </c>
+      <c r="E10">
+        <v>10800</v>
+      </c>
+      <c r="F10">
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11">
+        <v>11500</v>
+      </c>
+      <c r="D11">
+        <v>10300</v>
+      </c>
+      <c r="E11">
+        <v>9300</v>
+      </c>
+      <c r="F11">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12">
+        <v>40000</v>
+      </c>
+      <c r="D12">
+        <v>31000</v>
+      </c>
+      <c r="E12">
+        <v>28000</v>
+      </c>
+      <c r="F12">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13">
+        <v>32000</v>
+      </c>
+      <c r="D13">
+        <v>24800</v>
+      </c>
+      <c r="E13">
+        <v>22400</v>
+      </c>
+      <c r="F13">
+        <v>19200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14">
+        <v>16000</v>
+      </c>
+      <c r="D14">
+        <v>14200</v>
+      </c>
+      <c r="E14">
+        <v>13000</v>
+      </c>
+      <c r="F14">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15">
+        <v>66000</v>
+      </c>
+      <c r="D15">
+        <v>44000</v>
+      </c>
+      <c r="E15">
+        <v>40000</v>
+      </c>
+      <c r="F15">
+        <v>34000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16">
+        <v>52800</v>
+      </c>
+      <c r="D16">
+        <v>35200</v>
+      </c>
+      <c r="E16">
+        <v>32000</v>
+      </c>
+      <c r="F16">
+        <v>27200</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F87176E8-27CD-4C0C-9908-8DFDF47D66DD}">
+  <dimension ref="A1:J11"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.21875" customWidth="1"/>
+    <col min="2" max="2" width="28.109375" customWidth="1"/>
+    <col min="3" max="3" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="13.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2">
+        <v>2018</v>
+      </c>
+      <c r="C2">
+        <v>146</v>
+      </c>
+      <c r="D2">
+        <v>46</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F2">
+        <v>0.26</v>
+      </c>
+      <c r="G2" s="4">
+        <v>2.8500000000000001E-2</v>
+      </c>
+      <c r="H2" s="4">
+        <f t="shared" ref="H2:H11" si="0">SUM(E2:G2)</f>
+        <v>0.56850000000000001</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="J2" s="4">
+        <f>H2*(1+I2)</f>
+        <v>0.68788499999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3">
+        <v>2019</v>
+      </c>
+      <c r="C3">
+        <v>147</v>
+      </c>
+      <c r="D3">
+        <v>55</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G3" s="4">
+        <v>5.2400000000000002E-2</v>
+      </c>
+      <c r="H3" s="4">
+        <f t="shared" si="0"/>
+        <v>0.63239999999999996</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J11" si="1">H3*(1+I3)</f>
+        <v>0.76520399999999988</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4">
+        <v>2020</v>
+      </c>
+      <c r="C4">
+        <v>151</v>
+      </c>
+      <c r="D4">
+        <v>55</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.26</v>
+      </c>
+      <c r="F4">
+        <v>0.33</v>
+      </c>
+      <c r="G4" s="4">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" si="0"/>
+        <v>0.66750000000000009</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="1"/>
+        <v>0.80767500000000014</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5">
+        <v>2022</v>
+      </c>
+      <c r="C5">
+        <v>151</v>
+      </c>
+      <c r="D5">
+        <v>60</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.36</v>
+      </c>
+      <c r="G5" s="4">
+        <v>8.6499999999999994E-2</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" si="0"/>
+        <v>2.4464999999999999</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="1"/>
+        <v>2.9602649999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6">
+        <v>2030</v>
+      </c>
+      <c r="C6">
+        <v>151</v>
+      </c>
+      <c r="D6">
+        <v>55</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="F6">
+        <v>0.39</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.84</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="1"/>
+        <v>1.0164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7">
+        <v>2018</v>
+      </c>
+      <c r="C7">
+        <v>146</v>
+      </c>
+      <c r="D7">
+        <v>46</v>
+      </c>
+      <c r="E7" s="4">
+        <f>1.54 * (1-I7)</f>
+        <v>1.2166000000000001</v>
+      </c>
+      <c r="F7">
+        <v>0.26</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" si="0"/>
+        <v>1.4766000000000001</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" si="1"/>
+        <v>1.7866860000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8">
+        <v>2019</v>
+      </c>
+      <c r="C8">
+        <v>147</v>
+      </c>
+      <c r="D8">
+        <v>55</v>
+      </c>
+      <c r="E8" s="4">
+        <f>1.54 * (1-I8)</f>
+        <v>1.2166000000000001</v>
+      </c>
+      <c r="F8">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5066000000000002</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="1"/>
+        <v>1.8229860000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9">
+        <v>2020</v>
+      </c>
+      <c r="C9">
+        <v>151</v>
+      </c>
+      <c r="D9">
+        <v>55</v>
+      </c>
+      <c r="E9" s="4">
+        <f>1.54 * (1-I9)</f>
+        <v>1.2166000000000001</v>
+      </c>
+      <c r="F9">
+        <v>0.33</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5466000000000002</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="1"/>
+        <v>1.8713860000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10">
+        <v>2022</v>
+      </c>
+      <c r="C10">
+        <v>168</v>
+      </c>
+      <c r="D10">
+        <v>60</v>
+      </c>
+      <c r="E10" s="4">
+        <f>1.54 * (1-I10)</f>
+        <v>1.2166000000000001</v>
+      </c>
+      <c r="F10">
+        <v>0.33</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="0"/>
+        <v>1.5466000000000002</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="1"/>
+        <v>1.8713860000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11">
+        <v>2030</v>
+      </c>
+      <c r="C11">
+        <v>151</v>
+      </c>
+      <c r="D11">
+        <v>55</v>
+      </c>
+      <c r="E11" s="4">
+        <f>65*0.0097694444</f>
+        <v>0.63501388600000008</v>
+      </c>
+      <c r="F11">
+        <v>0.39</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="0"/>
+        <v>1.025013886</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="1"/>
+        <v>1.2402668020599998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1861,7 +2515,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1871,21 +2525,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1899,7 +2553,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1913,7 +2567,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1927,7 +2581,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1941,7 +2595,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B6">
         <v>0</v>

--- a/Data/Cost_estimation.xlsx
+++ b/Data/Cost_estimation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s124129\Documents\GitHub\Brabant-buurt-serious-game\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BAE5DC0-8DE6-4736-B4AF-630E8D29A8A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAEADF30-DFB4-4DB3-8067-CAD7A205B740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{692682D6-B432-47D6-B814-AA5FB880D973}"/>
+    <workbookView xWindow="-23148" yWindow="552" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{692682D6-B432-47D6-B814-AA5FB880D973}"/>
   </bookViews>
   <sheets>
     <sheet name="Inhouse heat systems" sheetId="1" r:id="rId1"/>
@@ -430,7 +430,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -512,7 +512,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -855,16 +855,16 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -890,7 +890,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -916,7 +916,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -942,7 +942,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -968,7 +968,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -994,7 +994,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -1100,22 +1100,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E437254-8431-436A-A556-48E8AFAFCC33}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1194,11 +1194,11 @@
         <v>50</v>
       </c>
       <c r="M2" s="7">
-        <f>L2/3.6/1000</f>
-        <v>1.388888888888889E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+        <f>L2*3.6/1000</f>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1236,11 +1236,11 @@
         <v>50</v>
       </c>
       <c r="M3" s="7">
-        <f t="shared" ref="M3:M5" si="0">L3/3.6/1000</f>
-        <v>1.388888888888889E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+        <f t="shared" ref="M3:M5" si="0">L3*3.6/1000</f>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1279,10 +1279,10 @@
       </c>
       <c r="M4" s="7">
         <f t="shared" si="0"/>
-        <v>1.388888888888889E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="M5" s="7">
         <f t="shared" si="0"/>
-        <v>1.388888888888889E-2</v>
+        <v>0.18</v>
       </c>
     </row>
   </sheetData>
@@ -1338,14 +1338,14 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1442,15 +1442,15 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>33</v>
       </c>
@@ -1464,7 +1464,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>0.113</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -1547,18 +1547,18 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>0.21779999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>0.22989999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>0.22989999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2022</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>0.77063000000000015</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2030</v>
       </c>
@@ -1773,14 +1773,14 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>49</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>57</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>9500</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>57</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>9600</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>7800</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>58</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>19200</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>34000</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>59</v>
       </c>
@@ -2114,19 +2114,19 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.21875" customWidth="1"/>
-    <col min="2" max="2" width="28.109375" customWidth="1"/>
-    <col min="3" max="3" width="29.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>80</v>
       </c>
@@ -2158,7 +2158,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>0.68788499999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>0.76520399999999988</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>81</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>0.80767500000000014</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>81</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>2.9602649999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>81</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>1.0164</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>82</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>1.7866860000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>82</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>1.8229860000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>82</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>1.8713860000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>82</v>
       </c>
@@ -2468,7 +2468,7 @@
         <v>1.8713860000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -2518,12 +2518,12 @@
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -2565,7 +2565,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>55</v>
       </c>

--- a/Data/Cost_estimation.xlsx
+++ b/Data/Cost_estimation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s124129\Documents\GitHub\Brabant-buurt-serious-game\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAEADF30-DFB4-4DB3-8067-CAD7A205B740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A34DB84-0B94-45EA-9D23-89579486080A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="552" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{692682D6-B432-47D6-B814-AA5FB880D973}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{692682D6-B432-47D6-B814-AA5FB880D973}"/>
   </bookViews>
   <sheets>
     <sheet name="Inhouse heat systems" sheetId="1" r:id="rId1"/>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="101">
   <si>
     <t>Unit</t>
   </si>
@@ -422,6 +422,12 @@
   </si>
   <si>
     <t>Leveringskosten warmte (Eur/kWh)</t>
+  </si>
+  <si>
+    <t>Isolation</t>
+  </si>
+  <si>
+    <t>See energievraag en isolatie woningen</t>
   </si>
 </sst>
 </file>
@@ -849,10 +855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C01DEAE-B245-4BB5-9FCD-4FA4EE9440AC}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1086,7 +1092,33 @@
         <v>46</v>
       </c>
       <c r="H9">
-        <v>15</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1100,7 +1132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E437254-8431-436A-A556-48E8AFAFCC33}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>

--- a/Data/Cost_estimation.xlsx
+++ b/Data/Cost_estimation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s124129\Documents\GitHub\Brabant-buurt-serious-game\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A34DB84-0B94-45EA-9D23-89579486080A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FFA77C-A4B0-4C85-AE4C-9C5F1CB36EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{692682D6-B432-47D6-B814-AA5FB880D973}"/>
+    <workbookView xWindow="3048" yWindow="732" windowWidth="17280" windowHeight="9060" xr2:uid="{692682D6-B432-47D6-B814-AA5FB880D973}"/>
   </bookViews>
   <sheets>
     <sheet name="Inhouse heat systems" sheetId="1" r:id="rId1"/>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="106">
   <si>
     <t>Unit</t>
   </si>
@@ -428,6 +428,21 @@
   </si>
   <si>
     <t>See energievraag en isolatie woningen</t>
+  </si>
+  <si>
+    <t>LT-Warmtenet</t>
+  </si>
+  <si>
+    <t>MT-Warmtenet</t>
+  </si>
+  <si>
+    <t>Verlies</t>
+  </si>
+  <si>
+    <t>Electric boiler</t>
+  </si>
+  <si>
+    <t>EUR per aansluiting</t>
   </si>
 </sst>
 </file>
@@ -855,22 +870,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C01DEAE-B245-4BB5-9FCD-4FA4EE9440AC}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -896,7 +911,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -922,7 +937,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -948,7 +963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -974,7 +989,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1000,7 +1015,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -1026,9 +1041,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>104</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1040,18 +1058,19 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <f>(1774.85+1112)/2</f>
+        <v>1443.425</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="H7">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1063,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1072,9 +1091,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1086,21 +1105,18 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
       </c>
       <c r="H9">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B10" t="s">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1112,12 +1128,38 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
       </c>
       <c r="H10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11">
         <v>30</v>
       </c>
     </row>
@@ -1130,24 +1172,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E437254-8431-436A-A556-48E8AFAFCC33}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -1187,8 +1229,11 @@
       <c r="M1" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1229,8 +1274,11 @@
         <f>L2*3.6/1000</f>
         <v>0.18</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2" s="6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1271,8 +1319,11 @@
         <f t="shared" ref="M3:M5" si="0">L3*3.6/1000</f>
         <v>0.18</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3" s="6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1313,10 +1364,13 @@
         <f t="shared" si="0"/>
         <v>0.18</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4" s="6">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="B5">
         <v>270</v>
@@ -1354,6 +1408,54 @@
       <c r="M5" s="7">
         <f t="shared" si="0"/>
         <v>0.18</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6">
+        <v>271</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="6">
+        <v>271</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
+        <v>30</v>
+      </c>
+      <c r="L6" s="6">
+        <v>50</v>
+      </c>
+      <c r="M6" s="7">
+        <f t="shared" ref="M6" si="1">L6*3.6/1000</f>
+        <v>0.18</v>
+      </c>
+      <c r="N6" s="6">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
@@ -1370,14 +1472,14 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -1391,7 +1493,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1405,7 +1507,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1419,7 +1521,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -1433,7 +1535,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -1447,7 +1549,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1471,18 +1573,18 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>33</v>
       </c>
@@ -1496,7 +1598,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -1510,7 +1612,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -1524,7 +1626,7 @@
         <v>0.113</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -1538,7 +1640,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -1552,7 +1654,7 @@
         <v>8.5999999999999993E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -1576,21 +1678,21 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -1622,7 +1724,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -1656,7 +1758,7 @@
         <v>0.21779999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -1690,7 +1792,7 @@
         <v>0.22989999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -1724,7 +1826,7 @@
         <v>0.22989999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2022</v>
       </c>
@@ -1758,7 +1860,7 @@
         <v>0.77063000000000015</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2030</v>
       </c>
@@ -1805,14 +1907,14 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>49</v>
       </c>
@@ -1832,7 +1934,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -1852,7 +1954,7 @@
         <v>5400</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -1872,7 +1974,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -1892,7 +1994,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -1912,7 +2014,7 @@
         <v>6500</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>56</v>
       </c>
@@ -1932,7 +2034,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -1952,7 +2054,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -1972,7 +2074,7 @@
         <v>4400</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>57</v>
       </c>
@@ -1992,7 +2094,7 @@
         <v>9500</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>57</v>
       </c>
@@ -2012,7 +2114,7 @@
         <v>9600</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>58</v>
       </c>
@@ -2032,7 +2134,7 @@
         <v>7800</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>58</v>
       </c>
@@ -2052,7 +2154,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -2072,7 +2174,7 @@
         <v>19200</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -2092,7 +2194,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -2112,7 +2214,7 @@
         <v>34000</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>59</v>
       </c>
@@ -2146,19 +2248,19 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="28.109375" customWidth="1"/>
+    <col min="3" max="3" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>80</v>
       </c>
@@ -2190,7 +2292,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>81</v>
       </c>
@@ -2224,7 +2326,7 @@
         <v>0.68788499999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>81</v>
       </c>
@@ -2258,7 +2360,7 @@
         <v>0.76520399999999988</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>81</v>
       </c>
@@ -2292,7 +2394,7 @@
         <v>0.80767500000000014</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>81</v>
       </c>
@@ -2326,7 +2428,7 @@
         <v>2.9602649999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>81</v>
       </c>
@@ -2360,7 +2462,7 @@
         <v>1.0164</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>82</v>
       </c>
@@ -2395,7 +2497,7 @@
         <v>1.7866860000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>82</v>
       </c>
@@ -2430,7 +2532,7 @@
         <v>1.8229860000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>82</v>
       </c>
@@ -2465,7 +2567,7 @@
         <v>1.8713860000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>82</v>
       </c>
@@ -2500,7 +2602,7 @@
         <v>1.8713860000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>82</v>
       </c>
@@ -2550,12 +2652,12 @@
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -2569,7 +2671,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -2583,7 +2685,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -2597,7 +2699,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -2611,7 +2713,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>58</v>
       </c>
@@ -2625,7 +2727,7 @@
         <v>0.69</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>55</v>
       </c>

--- a/Data/Cost_estimation.xlsx
+++ b/Data/Cost_estimation.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s124129\Documents\GitHub\Brabant-buurt-serious-game\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FFA77C-A4B0-4C85-AE4C-9C5F1CB36EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5641C74-5CDC-4ADB-A1BF-4EBB871E497D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3048" yWindow="732" windowWidth="17280" windowHeight="9060" xr2:uid="{692682D6-B432-47D6-B814-AA5FB880D973}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{692682D6-B432-47D6-B814-AA5FB880D973}"/>
   </bookViews>
   <sheets>
     <sheet name="Inhouse heat systems" sheetId="1" r:id="rId1"/>
     <sheet name="District heating" sheetId="2" r:id="rId2"/>
     <sheet name="Cable lengths" sheetId="3" r:id="rId3"/>
-    <sheet name="Energy cost" sheetId="4" r:id="rId4"/>
+    <sheet name="Energy costs" sheetId="10" r:id="rId4"/>
     <sheet name="Electricity fixed and variable" sheetId="7" r:id="rId5"/>
     <sheet name="Isolation cost" sheetId="6" r:id="rId6"/>
     <sheet name="Gas fixed and variable" sheetId="8" r:id="rId7"/>
@@ -41,6 +41,67 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={0FDBB4EC-87AB-46A6-B919-B527DF9C099E}</author>
+    <author>tc={48054496-1C53-4DB0-A6F0-9C74A2E84D08}</author>
+    <author>tc={5B652A96-D545-4FAB-A1DF-D85E1FBE196C}</author>
+    <author>Loomans, N.</author>
+  </authors>
+  <commentList>
+    <comment ref="F13" authorId="0" shapeId="0" xr:uid="{0FDBB4EC-87AB-46A6-B919-B527DF9C099E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Power peers groen gas</t>
+      </text>
+    </comment>
+    <comment ref="F14" authorId="1" shapeId="0" xr:uid="{48054496-1C53-4DB0-A6F0-9C74A2E84D08}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Power peers groen gas</t>
+      </text>
+    </comment>
+    <comment ref="F15" authorId="2" shapeId="0" xr:uid="{5B652A96-D545-4FAB-A1DF-D85E1FBE196C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Power peers groen gas</t>
+      </text>
+    </comment>
+    <comment ref="F16" authorId="3" shapeId="0" xr:uid="{304F8695-C2FC-4D73-B98F-AFBFE62BA33A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Loomans, N.:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+https://ce.nl/wp-content/uploads/2022/02/CE_Delft_210264_Maatschappelijke_waarde_groengas_DEF.pdf</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={CB2624A8-EEC4-4366-955D-D44460D42BAA}</author>
@@ -102,7 +163,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="119">
   <si>
     <t>Unit</t>
   </si>
@@ -203,56 +264,6 @@
     <t>CAPEX (EUR/kW)</t>
   </si>
   <si>
-    <t>Energy prize (2030) tax included (per kWh)</t>
-  </si>
-  <si>
-    <r>
-      <t>Low (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>€</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <t>Standard (€)</t>
-  </si>
-  <si>
-    <t>Low (€)</t>
-  </si>
-  <si>
-    <t>Electricity (&lt;10.000 kWh/jr)</t>
-  </si>
-  <si>
-    <t>Electricity (&lt;50.000 kWh/jr)</t>
-  </si>
-  <si>
-    <t>Electricity (&lt;10.000.000 kWh/jr)</t>
-  </si>
-  <si>
-    <t>Electricity (&gt;10.000.000 kWh/jr)</t>
-  </si>
-  <si>
-    <t>Green gas</t>
-  </si>
-  <si>
     <t>HT-radiator</t>
   </si>
   <si>
@@ -436,13 +447,79 @@
     <t>MT-Warmtenet</t>
   </si>
   <si>
-    <t>Verlies</t>
-  </si>
-  <si>
     <t>Electric boiler</t>
   </si>
   <si>
     <t>EUR per aansluiting</t>
+  </si>
+  <si>
+    <t>CO2-emissiefactor</t>
+  </si>
+  <si>
+    <t>electricity</t>
+  </si>
+  <si>
+    <t>LT-warmte</t>
+  </si>
+  <si>
+    <t>MT-warmte</t>
+  </si>
+  <si>
+    <t>Eur/kWh</t>
+  </si>
+  <si>
+    <t>Eur/m3</t>
+  </si>
+  <si>
+    <t>kWh per m3 gas</t>
+  </si>
+  <si>
+    <t>GJ per kWh</t>
+  </si>
+  <si>
+    <t>Eur/GJ</t>
+  </si>
+  <si>
+    <t>Netbeheerkosten (eur/jaar)</t>
+  </si>
+  <si>
+    <t>Vaste leveringskosten (eur/jaar)</t>
+  </si>
+  <si>
+    <t>Benzine autokilometer</t>
+  </si>
+  <si>
+    <t>kg/kWh</t>
+  </si>
+  <si>
+    <t>kg/Nm3</t>
+  </si>
+  <si>
+    <t>kWh per km</t>
+  </si>
+  <si>
+    <t>kg/km</t>
+  </si>
+  <si>
+    <t>kg/GJ</t>
+  </si>
+  <si>
+    <t>CO2-emissiefactor (kg/kWh)</t>
+  </si>
+  <si>
+    <t>KEV 2021</t>
+  </si>
+  <si>
+    <t>Lijst Emissiefactoren</t>
+  </si>
+  <si>
+    <t>Eur/l</t>
+  </si>
+  <si>
+    <t>Cent accijns per liter brandstof</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
   </si>
 </sst>
 </file>
@@ -453,7 +530,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -475,13 +552,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -525,7 +595,7 @@
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -534,6 +604,8 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -856,6 +928,20 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="F13" dT="2022-08-05T13:29:38.93" personId="{AA70B0DB-01DC-45B7-BD28-402812321547}" id="{0FDBB4EC-87AB-46A6-B919-B527DF9C099E}">
+    <text>Power peers groen gas</text>
+  </threadedComment>
+  <threadedComment ref="F14" dT="2022-08-05T13:29:38.93" personId="{AA70B0DB-01DC-45B7-BD28-402812321547}" id="{48054496-1C53-4DB0-A6F0-9C74A2E84D08}">
+    <text>Power peers groen gas</text>
+  </threadedComment>
+  <threadedComment ref="F15" dT="2022-08-05T13:29:38.93" personId="{AA70B0DB-01DC-45B7-BD28-402812321547}" id="{5B652A96-D545-4FAB-A1DF-D85E1FBE196C}">
+    <text>Power peers groen gas</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <threadedComment ref="E8" dT="2022-08-05T13:29:38.93" personId="{AA70B0DB-01DC-45B7-BD28-402812321547}" id="{CB2624A8-EEC4-4366-955D-D44460D42BAA}">
     <text>Power peers groen gas</text>
   </threadedComment>
@@ -872,7 +958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C01DEAE-B245-4BB5-9FCD-4FA4EE9440AC}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -896,7 +982,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>9</v>
@@ -922,7 +1008,7 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -931,7 +1017,7 @@
         <v>909.8</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H2">
         <v>15</v>
@@ -948,7 +1034,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -957,7 +1043,7 @@
         <v>1390.4</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H3">
         <v>15</v>
@@ -974,7 +1060,7 @@
         <v>40.816326530612201</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -983,7 +1069,7 @@
         <v>779.38775510204096</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H4">
         <v>15</v>
@@ -1000,7 +1086,7 @@
         <v>4.4545454545454497</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1009,7 +1095,7 @@
         <v>97.022272727272707</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>15</v>
@@ -1026,7 +1112,7 @@
         <v>4.4545454545454497</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1035,7 +1121,7 @@
         <v>97.022272727272707</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="H6">
         <v>15</v>
@@ -1043,7 +1129,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -1052,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1062,7 +1148,7 @@
         <v>1443.425</v>
       </c>
       <c r="G7" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="H7">
         <v>15</v>
@@ -1070,13 +1156,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1085,7 +1171,7 @@
         <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H8">
         <v>15</v>
@@ -1093,13 +1179,13 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1108,7 +1194,7 @@
         <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H9">
         <v>15</v>
@@ -1116,13 +1202,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1131,7 +1217,7 @@
         <v>71</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H10">
         <v>30</v>
@@ -1139,16 +1225,16 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B11" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1157,14 +1243,14 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H11">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -1174,8 +1260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E437254-8431-436A-A556-48E8AFAFCC33}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1200,37 +1286,37 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="N1" s="2" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -1250,13 +1336,13 @@
         <v>12000</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G2" s="6">
         <v>836.14</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="I2" s="6">
         <v>360</v>
@@ -1275,7 +1361,7 @@
         <v>0.18</v>
       </c>
       <c r="N2" s="6">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -1295,13 +1381,13 @@
         <v>10000</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G3" s="6">
         <v>836.14</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="I3" s="6">
         <v>360</v>
@@ -1320,7 +1406,7 @@
         <v>0.18</v>
       </c>
       <c r="N3" s="6">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -1340,13 +1426,13 @@
         <v>4000</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="G4" s="6">
         <v>836.14</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="I4" s="6">
         <v>360</v>
@@ -1365,12 +1451,12 @@
         <v>0.18</v>
       </c>
       <c r="N4" s="6">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B5">
         <v>270</v>
@@ -1385,13 +1471,13 @@
         <v>270</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G5" s="6">
         <v>0</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I5" s="6">
         <v>0</v>
@@ -1410,12 +1496,12 @@
         <v>0.18</v>
       </c>
       <c r="N5" s="6">
-        <v>0.15</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B6">
         <v>271</v>
@@ -1427,16 +1513,16 @@
         <v>17</v>
       </c>
       <c r="E6" s="6">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="G6" s="6">
         <v>0</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I6" s="6">
         <v>0</v>
@@ -1455,7 +1541,7 @@
         <v>0.18</v>
       </c>
       <c r="N6" s="6">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
@@ -1569,107 +1655,1681 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ED887E6-C52A-44E3-8558-D8298B71C13E}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{547AFE0D-B0F0-4C41-B47D-B91F5137ACCD}">
+  <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="39.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2">
-        <v>6.5000000000000002E-2</v>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N1" t="s">
+        <v>96</v>
+      </c>
+      <c r="P1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2018</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
       </c>
       <c r="C2">
-        <v>8.5999999999999993E-2</v>
+        <v>195</v>
       </c>
       <c r="D2">
-        <v>0.108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3">
+        <v>45</v>
+      </c>
+      <c r="E2">
+        <v>313</v>
+      </c>
+      <c r="F2">
+        <v>0.06</v>
+      </c>
+      <c r="G2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="I2">
+        <v>0.01</v>
+      </c>
+      <c r="J2" s="4">
+        <f>SUM(F2:I2)</f>
+        <v>0.18</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="L2" s="4">
+        <f>J2*(1+K2)</f>
+        <v>0.21779999999999999</v>
+      </c>
+      <c r="M2" s="4">
+        <f>L2</f>
+        <v>0.21779999999999999</v>
+      </c>
+      <c r="N2">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="O2" t="s">
+        <v>108</v>
+      </c>
+      <c r="P2" s="4">
+        <v>0.36899999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2019</v>
+      </c>
+      <c r="B3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3">
+        <v>197</v>
+      </c>
+      <c r="D3">
+        <v>55</v>
+      </c>
+      <c r="E3">
+        <v>258</v>
+      </c>
+      <c r="F3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C3">
-        <v>9.0999999999999998E-2</v>
-      </c>
-      <c r="D3">
-        <v>0.113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4">
-        <v>8.3000000000000004E-2</v>
+      <c r="G3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="I3">
+        <v>0.02</v>
+      </c>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J6" si="0">SUM(F3:I3)</f>
+        <v>0.19</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="L3" s="4">
+        <f t="shared" ref="L3:L6" si="1">J3*(1+K3)</f>
+        <v>0.22989999999999999</v>
+      </c>
+      <c r="M3" s="4">
+        <f t="shared" ref="M3:M6" si="2">L3</f>
+        <v>0.22989999999999999</v>
+      </c>
+      <c r="N3">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="O3" t="s">
+        <v>108</v>
+      </c>
+      <c r="P3" s="4">
+        <v>0.36899999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2020</v>
+      </c>
+      <c r="B4" t="s">
+        <v>97</v>
       </c>
       <c r="C4">
-        <v>0.104</v>
+        <v>197</v>
       </c>
       <c r="D4">
-        <v>0.126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5">
-        <v>4.2000000000000003E-2</v>
+        <v>55</v>
+      </c>
+      <c r="E4">
+        <v>430</v>
+      </c>
+      <c r="F4">
+        <v>0.06</v>
+      </c>
+      <c r="G4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="I4">
+        <v>0.03</v>
+      </c>
+      <c r="J4" s="4">
+        <f t="shared" si="0"/>
+        <v>0.19</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="L4" s="4">
+        <f t="shared" si="1"/>
+        <v>0.22989999999999999</v>
+      </c>
+      <c r="M4" s="4">
+        <f t="shared" si="2"/>
+        <v>0.22989999999999999</v>
+      </c>
+      <c r="N4">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="O4" t="s">
+        <v>108</v>
+      </c>
+      <c r="P4" s="4">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="R4">
+        <v>0.83</v>
+      </c>
+      <c r="S4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2022</v>
+      </c>
+      <c r="B5" t="s">
+        <v>97</v>
       </c>
       <c r="C5">
-        <v>6.3E-2</v>
+        <v>229</v>
       </c>
       <c r="D5">
-        <v>8.5999999999999993E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6">
-        <v>0.65</v>
+        <v>64</v>
+      </c>
+      <c r="E5">
+        <v>430</v>
+      </c>
+      <c r="F5">
+        <v>0.64</v>
+      </c>
+      <c r="G5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" s="4">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="I5">
+        <v>0.03</v>
+      </c>
+      <c r="J5" s="4">
+        <f t="shared" si="0"/>
+        <v>0.70700000000000007</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="L5" s="4">
+        <f t="shared" si="1"/>
+        <v>0.77063000000000015</v>
+      </c>
+      <c r="M5" s="4">
+        <f t="shared" si="2"/>
+        <v>0.77063000000000015</v>
+      </c>
+      <c r="N5">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="O5" t="s">
+        <v>108</v>
+      </c>
+      <c r="P5" s="4">
+        <f t="shared" ref="P5" si="3">N5</f>
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>115</v>
+      </c>
+      <c r="R5">
+        <v>9.7690000000000001</v>
+      </c>
+      <c r="S5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2030</v>
+      </c>
+      <c r="B6" t="s">
+        <v>97</v>
       </c>
       <c r="C6">
-        <v>1.03</v>
+        <v>246</v>
       </c>
       <c r="D6">
-        <v>1.06</v>
+        <v>55</v>
+      </c>
+      <c r="E6">
+        <v>449</v>
+      </c>
+      <c r="F6">
+        <v>0.08</v>
+      </c>
+      <c r="G6" t="s">
+        <v>100</v>
+      </c>
+      <c r="H6" s="4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I6">
+        <v>0.03</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="0"/>
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="L6" s="4">
+        <f t="shared" si="1"/>
+        <v>0.21780000000000002</v>
+      </c>
+      <c r="M6" s="4">
+        <f t="shared" si="2"/>
+        <v>0.21780000000000002</v>
+      </c>
+      <c r="N6">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="O6" t="s">
+        <v>108</v>
+      </c>
+      <c r="P6" s="4">
+        <v>9.4E-2</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>114</v>
+      </c>
+      <c r="R6">
+        <f>3.6/1000</f>
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="S6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2018</v>
+      </c>
+      <c r="B7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7">
+        <v>146</v>
+      </c>
+      <c r="D7">
+        <v>46</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7">
+        <v>0.26</v>
+      </c>
+      <c r="I7" s="4">
+        <v>2.8500000000000001E-2</v>
+      </c>
+      <c r="J7" s="4">
+        <f t="shared" ref="J7:J16" si="4">SUM(F7:I7)</f>
+        <v>0.56850000000000001</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="L7" s="4">
+        <f>J7*(1+K7)</f>
+        <v>0.68788499999999997</v>
+      </c>
+      <c r="M7" s="4">
+        <f t="shared" ref="M7:M16" si="5">L7/$R$5</f>
+        <v>7.0415088545398713E-2</v>
+      </c>
+      <c r="N7">
+        <v>2.085</v>
+      </c>
+      <c r="O7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P7" s="4">
+        <f t="shared" ref="P7:P16" si="6">N7/$R$5</f>
+        <v>0.21343023850957107</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>115</v>
+      </c>
+      <c r="R7">
+        <v>0.2</v>
+      </c>
+      <c r="S7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2019</v>
+      </c>
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8">
+        <v>147</v>
+      </c>
+      <c r="D8">
+        <v>55</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I8" s="4">
+        <v>5.2400000000000002E-2</v>
+      </c>
+      <c r="J8" s="4">
+        <f t="shared" si="4"/>
+        <v>0.63239999999999996</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="L8" s="4">
+        <f t="shared" ref="L8:L16" si="7">J8*(1+K8)</f>
+        <v>0.76520399999999988</v>
+      </c>
+      <c r="M8" s="4">
+        <f t="shared" si="5"/>
+        <v>7.832981881461766E-2</v>
+      </c>
+      <c r="N8">
+        <v>2.085</v>
+      </c>
+      <c r="O8" t="s">
+        <v>109</v>
+      </c>
+      <c r="P8" s="4">
+        <f t="shared" si="6"/>
+        <v>0.21343023850957107</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2020</v>
+      </c>
+      <c r="B9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9">
+        <v>151</v>
+      </c>
+      <c r="D9">
+        <v>55</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.26</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H9">
+        <v>0.33</v>
+      </c>
+      <c r="I9" s="4">
+        <v>7.7499999999999999E-2</v>
+      </c>
+      <c r="J9" s="4">
+        <f t="shared" si="4"/>
+        <v>0.66750000000000009</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="L9" s="4">
+        <f t="shared" si="7"/>
+        <v>0.80767500000000014</v>
+      </c>
+      <c r="M9" s="4">
+        <f t="shared" si="5"/>
+        <v>8.2677346708977389E-2</v>
+      </c>
+      <c r="N9">
+        <v>2.085</v>
+      </c>
+      <c r="O9" t="s">
+        <v>109</v>
+      </c>
+      <c r="P9" s="4">
+        <f t="shared" si="6"/>
+        <v>0.21343023850957107</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2022</v>
+      </c>
+      <c r="B10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10">
+        <v>151</v>
+      </c>
+      <c r="D10">
+        <v>60</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H10">
+        <v>0.36</v>
+      </c>
+      <c r="I10" s="4">
+        <v>8.6499999999999994E-2</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="4"/>
+        <v>2.4464999999999999</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="L10" s="4">
+        <f t="shared" si="7"/>
+        <v>2.9602649999999997</v>
+      </c>
+      <c r="M10" s="4">
+        <f t="shared" si="5"/>
+        <v>0.30302641007267883</v>
+      </c>
+      <c r="N10">
+        <v>2.085</v>
+      </c>
+      <c r="O10" t="s">
+        <v>109</v>
+      </c>
+      <c r="P10" s="4">
+        <f t="shared" si="6"/>
+        <v>0.21343023850957107</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2030</v>
+      </c>
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11">
+        <v>151</v>
+      </c>
+      <c r="D11">
+        <v>55</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H11">
+        <v>0.39</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="4"/>
+        <v>0.82</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="L11" s="4">
+        <f t="shared" si="7"/>
+        <v>0.99219999999999986</v>
+      </c>
+      <c r="M11" s="4">
+        <f t="shared" si="5"/>
+        <v>0.10156617872863137</v>
+      </c>
+      <c r="N11">
+        <v>2.085</v>
+      </c>
+      <c r="O11" t="s">
+        <v>109</v>
+      </c>
+      <c r="P11" s="4">
+        <f t="shared" si="6"/>
+        <v>0.21343023850957107</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2018</v>
+      </c>
+      <c r="B12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12">
+        <v>146</v>
+      </c>
+      <c r="D12">
+        <v>46</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <f>1.54 * (1-K12)</f>
+        <v>1.2166000000000001</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H12">
+        <v>0.26</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="4"/>
+        <v>1.4766000000000001</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="L12" s="4">
+        <f t="shared" si="7"/>
+        <v>1.7866860000000002</v>
+      </c>
+      <c r="M12" s="4">
+        <f t="shared" si="5"/>
+        <v>0.18289343842767941</v>
+      </c>
+      <c r="N12">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="O12" t="s">
+        <v>109</v>
+      </c>
+      <c r="P12" s="4">
+        <f t="shared" si="6"/>
+        <v>7.4009622274541914E-2</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2019</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13">
+        <v>147</v>
+      </c>
+      <c r="D13">
+        <v>55</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <f>1.54 * (1-K13)</f>
+        <v>1.2166000000000001</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H13">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="4"/>
+        <v>1.5066000000000002</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="L13" s="4">
+        <f t="shared" si="7"/>
+        <v>1.8229860000000002</v>
+      </c>
+      <c r="M13" s="4">
+        <f t="shared" si="5"/>
+        <v>0.18660927423482446</v>
+      </c>
+      <c r="N13">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="O13" t="s">
+        <v>109</v>
+      </c>
+      <c r="P13" s="4">
+        <f t="shared" si="6"/>
+        <v>7.4009622274541914E-2</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2020</v>
+      </c>
+      <c r="B14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14">
+        <v>151</v>
+      </c>
+      <c r="D14">
+        <v>55</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <f>1.54 * (1-K14)</f>
+        <v>1.2166000000000001</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H14">
+        <v>0.33</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="4"/>
+        <v>1.5466000000000002</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="L14" s="4">
+        <f t="shared" si="7"/>
+        <v>1.8713860000000002</v>
+      </c>
+      <c r="M14" s="4">
+        <f t="shared" si="5"/>
+        <v>0.19156372197768454</v>
+      </c>
+      <c r="N14">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="O14" t="s">
+        <v>109</v>
+      </c>
+      <c r="P14" s="4">
+        <f t="shared" si="6"/>
+        <v>7.4009622274541914E-2</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2022</v>
+      </c>
+      <c r="B15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15">
+        <v>168</v>
+      </c>
+      <c r="D15">
+        <v>60</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <f>1.54 * (1-K15)</f>
+        <v>1.2166000000000001</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H15">
+        <v>0.33</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="4"/>
+        <v>1.5466000000000002</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="L15" s="4">
+        <f t="shared" si="7"/>
+        <v>1.8713860000000002</v>
+      </c>
+      <c r="M15" s="4">
+        <f t="shared" si="5"/>
+        <v>0.19156372197768454</v>
+      </c>
+      <c r="N15">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="O15" t="s">
+        <v>109</v>
+      </c>
+      <c r="P15" s="4">
+        <f t="shared" si="6"/>
+        <v>7.4009622274541914E-2</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2030</v>
+      </c>
+      <c r="B16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16">
+        <v>151</v>
+      </c>
+      <c r="D16">
+        <v>55</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <f>65*0.0097694444</f>
+        <v>0.63501388600000008</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H16">
+        <v>0.39</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="4"/>
+        <v>1.025013886</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="L16" s="4">
+        <f t="shared" si="7"/>
+        <v>1.2402668020599998</v>
+      </c>
+      <c r="M16" s="4">
+        <f t="shared" si="5"/>
+        <v>0.12695944334732315</v>
+      </c>
+      <c r="N16">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="O16" t="s">
+        <v>109</v>
+      </c>
+      <c r="P16" s="4">
+        <f t="shared" si="6"/>
+        <v>7.4009622274541914E-2</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8">
+        <v>2018</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="6">
+        <v>267.92</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" s="9">
+        <f>L17*(1-K17)</f>
+        <v>42.620500000000007</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0</v>
+      </c>
+      <c r="J17" s="9">
+        <f t="shared" ref="J17:J26" si="8">L17*(1-K17)</f>
+        <v>42.620500000000007</v>
+      </c>
+      <c r="K17" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="L17" s="9">
+        <f>53.95</f>
+        <v>53.95</v>
+      </c>
+      <c r="M17" s="4">
+        <f t="shared" ref="M17:M26" si="9">L17*$R$6</f>
+        <v>0.19422</v>
+      </c>
+      <c r="N17" s="8">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="P17" s="9">
+        <f t="shared" ref="P17:P26" si="10">N17*$R$6</f>
+        <v>3.168E-2</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2019</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="6">
+        <v>267.92</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" s="9">
+        <f t="shared" ref="F18:F26" si="11">L18*(1-K18)</f>
+        <v>42.620500000000007</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0</v>
+      </c>
+      <c r="J18" s="9">
+        <f t="shared" si="8"/>
+        <v>42.620500000000007</v>
+      </c>
+      <c r="K18" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="L18" s="9">
+        <f t="shared" ref="L18:L26" si="12">53.95</f>
+        <v>53.95</v>
+      </c>
+      <c r="M18" s="4">
+        <f t="shared" si="9"/>
+        <v>0.19422</v>
+      </c>
+      <c r="N18" s="8">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="P18" s="9">
+        <f t="shared" si="10"/>
+        <v>3.168E-2</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2020</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="6">
+        <v>267.92</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" s="9">
+        <f t="shared" si="11"/>
+        <v>42.620500000000007</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0</v>
+      </c>
+      <c r="J19" s="9">
+        <f t="shared" si="8"/>
+        <v>42.620500000000007</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="L19" s="9">
+        <f t="shared" si="12"/>
+        <v>53.95</v>
+      </c>
+      <c r="M19" s="4">
+        <f t="shared" si="9"/>
+        <v>0.19422</v>
+      </c>
+      <c r="N19" s="8">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="9">
+        <f t="shared" si="10"/>
+        <v>3.168E-2</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2022</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="6">
+        <v>267.92</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" s="9">
+        <f t="shared" si="11"/>
+        <v>42.620500000000007</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0</v>
+      </c>
+      <c r="J20" s="9">
+        <f t="shared" si="8"/>
+        <v>42.620500000000007</v>
+      </c>
+      <c r="K20" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="L20" s="9">
+        <f t="shared" si="12"/>
+        <v>53.95</v>
+      </c>
+      <c r="M20" s="4">
+        <f t="shared" si="9"/>
+        <v>0.19422</v>
+      </c>
+      <c r="N20" s="8">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="P20" s="9">
+        <f t="shared" si="10"/>
+        <v>3.168E-2</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2030</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="6">
+        <v>267.92</v>
+      </c>
+      <c r="D21" s="8">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" s="9">
+        <f t="shared" si="11"/>
+        <v>42.620500000000007</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="H21" s="6">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0</v>
+      </c>
+      <c r="J21" s="9">
+        <f t="shared" si="8"/>
+        <v>42.620500000000007</v>
+      </c>
+      <c r="K21" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="L21" s="9">
+        <f t="shared" si="12"/>
+        <v>53.95</v>
+      </c>
+      <c r="M21" s="4">
+        <f t="shared" si="9"/>
+        <v>0.19422</v>
+      </c>
+      <c r="N21" s="8">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="P21" s="9">
+        <f t="shared" si="10"/>
+        <v>3.168E-2</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2018</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="6">
+        <v>267.92</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" s="9">
+        <f t="shared" si="11"/>
+        <v>42.620500000000007</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="H22" s="6">
+        <v>0</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0</v>
+      </c>
+      <c r="J22" s="9">
+        <f t="shared" si="8"/>
+        <v>42.620500000000007</v>
+      </c>
+      <c r="K22" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="L22" s="9">
+        <f>53.95</f>
+        <v>53.95</v>
+      </c>
+      <c r="M22" s="4">
+        <f t="shared" si="9"/>
+        <v>0.19422</v>
+      </c>
+      <c r="N22" s="8">
+        <v>26.84</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="P22" s="9">
+        <f t="shared" si="10"/>
+        <v>9.6624000000000002E-2</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2019</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="6">
+        <v>267.92</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" s="9">
+        <f t="shared" si="11"/>
+        <v>42.620500000000007</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="H23" s="6">
+        <v>0</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0</v>
+      </c>
+      <c r="J23" s="9">
+        <f t="shared" si="8"/>
+        <v>42.620500000000007</v>
+      </c>
+      <c r="K23" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="L23" s="9">
+        <f t="shared" si="12"/>
+        <v>53.95</v>
+      </c>
+      <c r="M23" s="4">
+        <f t="shared" si="9"/>
+        <v>0.19422</v>
+      </c>
+      <c r="N23" s="8">
+        <v>26.84</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="P23" s="9">
+        <f t="shared" si="10"/>
+        <v>9.6624000000000002E-2</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2020</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="6">
+        <v>267.92</v>
+      </c>
+      <c r="D24" s="8">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" s="9">
+        <f t="shared" si="11"/>
+        <v>42.620500000000007</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="H24" s="6">
+        <v>0</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0</v>
+      </c>
+      <c r="J24" s="9">
+        <f t="shared" si="8"/>
+        <v>42.620500000000007</v>
+      </c>
+      <c r="K24" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="L24" s="9">
+        <f t="shared" si="12"/>
+        <v>53.95</v>
+      </c>
+      <c r="M24" s="4">
+        <f t="shared" si="9"/>
+        <v>0.19422</v>
+      </c>
+      <c r="N24" s="8">
+        <v>26.84</v>
+      </c>
+      <c r="O24" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="P24" s="9">
+        <f t="shared" si="10"/>
+        <v>9.6624000000000002E-2</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>2022</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="6">
+        <v>267.92</v>
+      </c>
+      <c r="D25" s="8">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" s="9">
+        <f t="shared" si="11"/>
+        <v>42.620500000000007</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="H25" s="6">
+        <v>0</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0</v>
+      </c>
+      <c r="J25" s="9">
+        <f t="shared" si="8"/>
+        <v>42.620500000000007</v>
+      </c>
+      <c r="K25" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="L25" s="9">
+        <f t="shared" si="12"/>
+        <v>53.95</v>
+      </c>
+      <c r="M25" s="4">
+        <f t="shared" si="9"/>
+        <v>0.19422</v>
+      </c>
+      <c r="N25" s="8">
+        <v>26.84</v>
+      </c>
+      <c r="O25" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="P25" s="9">
+        <f t="shared" si="10"/>
+        <v>9.6624000000000002E-2</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2030</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="6">
+        <v>267.92</v>
+      </c>
+      <c r="D26" s="8">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" s="9">
+        <f t="shared" si="11"/>
+        <v>42.620500000000007</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="H26" s="6">
+        <v>0</v>
+      </c>
+      <c r="I26" s="4">
+        <v>0</v>
+      </c>
+      <c r="J26" s="9">
+        <f t="shared" si="8"/>
+        <v>42.620500000000007</v>
+      </c>
+      <c r="K26" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="L26" s="9">
+        <f t="shared" si="12"/>
+        <v>53.95</v>
+      </c>
+      <c r="M26" s="4">
+        <f t="shared" si="9"/>
+        <v>0.19422</v>
+      </c>
+      <c r="N26" s="8">
+        <v>26.84</v>
+      </c>
+      <c r="O26" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="P26" s="9">
+        <f t="shared" si="10"/>
+        <v>9.6624000000000002E-2</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>2018</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" s="8">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>116</v>
+      </c>
+      <c r="H27" s="6">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>1.6180000000000001</v>
+      </c>
+      <c r="N27">
+        <v>4.7E-2</v>
+      </c>
+      <c r="O27" t="s">
+        <v>111</v>
+      </c>
+      <c r="P27" s="4">
+        <f>N27/$R$7</f>
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>2019</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" s="8">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="G28" t="s">
+        <v>116</v>
+      </c>
+      <c r="L28">
+        <v>1.647</v>
+      </c>
+      <c r="N28">
+        <v>4.7E-2</v>
+      </c>
+      <c r="O28" t="s">
+        <v>111</v>
+      </c>
+      <c r="P28" s="4">
+        <f>N28/$R$7</f>
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>2020</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D29" s="8">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>116</v>
+      </c>
+      <c r="L29">
+        <v>1.5620000000000001</v>
+      </c>
+      <c r="N29">
+        <v>4.7E-2</v>
+      </c>
+      <c r="O29" t="s">
+        <v>111</v>
+      </c>
+      <c r="P29" s="4">
+        <f>N29/$R$7</f>
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>2022</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D30" s="8">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>116</v>
+      </c>
+      <c r="L30">
+        <v>2</v>
+      </c>
+      <c r="N30">
+        <v>4.7E-2</v>
+      </c>
+      <c r="O30" t="s">
+        <v>111</v>
+      </c>
+      <c r="P30" s="4">
+        <f>N30/$R$7</f>
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>2030</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D31" s="8">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
+        <v>116</v>
+      </c>
+      <c r="L31">
+        <v>2</v>
+      </c>
+      <c r="N31">
+        <v>4.7E-2</v>
+      </c>
+      <c r="O31" t="s">
+        <v>111</v>
+      </c>
+      <c r="P31" s="4">
+        <f>N31/$R$7</f>
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1678,7 +3338,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection sqref="A1:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1694,34 +3354,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="F1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="G1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="I1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -1916,30 +3576,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C2">
         <v>800</v>
@@ -1956,10 +3616,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C3">
         <v>30000</v>
@@ -1976,10 +3636,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C4">
         <v>24000</v>
@@ -1996,10 +3656,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C5">
         <v>9500</v>
@@ -2016,10 +3676,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C6">
         <v>40000</v>
@@ -2036,10 +3696,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C7">
         <v>32000</v>
@@ -2056,10 +3716,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C8">
         <v>6500</v>
@@ -2076,10 +3736,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C9">
         <v>22000</v>
@@ -2096,10 +3756,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C10">
         <v>17600</v>
@@ -2116,10 +3776,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C11">
         <v>11500</v>
@@ -2136,10 +3796,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C12">
         <v>40000</v>
@@ -2156,10 +3816,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C13">
         <v>32000</v>
@@ -2176,10 +3836,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C14">
         <v>16000</v>
@@ -2196,10 +3856,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C15">
         <v>66000</v>
@@ -2216,10 +3876,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C16">
         <v>52800</v>
@@ -2245,7 +3905,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection sqref="A1:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2262,39 +3922,39 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" t="s">
         <v>75</v>
-      </c>
-      <c r="D1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I1" t="s">
-        <v>83</v>
-      </c>
-      <c r="J1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B2">
         <v>2018</v>
@@ -2328,7 +3988,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B3">
         <v>2019</v>
@@ -2362,7 +4022,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B4">
         <v>2020</v>
@@ -2396,7 +4056,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B5">
         <v>2022</v>
@@ -2430,7 +4090,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B6">
         <v>2030</v>
@@ -2464,7 +4124,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B7">
         <v>2018</v>
@@ -2499,7 +4159,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B8">
         <v>2019</v>
@@ -2534,7 +4194,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B9">
         <v>2020</v>
@@ -2569,7 +4229,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B10">
         <v>2022</v>
@@ -2604,7 +4264,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B11">
         <v>2030</v>
@@ -2659,21 +4319,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2687,7 +4347,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2701,7 +4361,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2715,7 +4375,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2729,7 +4389,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B6">
         <v>0</v>
